--- a/TestData/testData.xlsx
+++ b/TestData/testData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="89">
   <si>
     <t>UserMailId</t>
   </si>
@@ -173,6 +173,138 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Royal Enfield Classic 650</t>
+  </si>
+  <si>
+    <t>Rs. 3.20 Lakh</t>
+  </si>
+  <si>
+    <t>Launch Date : 20 Mar 2024</t>
+  </si>
+  <si>
+    <t>Husqvarna Vitpilen 125</t>
+  </si>
+  <si>
+    <t>Rs. 1.35 Lakh</t>
+  </si>
+  <si>
+    <t>Husqvarna Svartpilen 201</t>
+  </si>
+  <si>
+    <t>Rs. 1.50 Lakh</t>
+  </si>
+  <si>
+    <t>Yamaha XSR125</t>
+  </si>
+  <si>
+    <t>Yamaha NMax 155</t>
+  </si>
+  <si>
+    <t>Rs. 1.30 Lakh</t>
+  </si>
+  <si>
+    <t>Lectrix EV LXS G 3.0</t>
+  </si>
+  <si>
+    <t>Price To Be Announced</t>
+  </si>
+  <si>
+    <t>Eko Tejas E-Dyroth</t>
+  </si>
+  <si>
+    <t>Kinetic e-Luna</t>
+  </si>
+  <si>
+    <t>Rs. 80,000</t>
+  </si>
+  <si>
+    <t>TVS Fiero 125</t>
+  </si>
+  <si>
+    <t>Hero Xoom 125R</t>
+  </si>
+  <si>
+    <t>Rs. 1.00 Lakh</t>
+  </si>
+  <si>
+    <t>Hero Xoom 160</t>
+  </si>
+  <si>
+    <t>Rs. 1.45 Lakh</t>
+  </si>
+  <si>
+    <t>Tork Electric Bike</t>
+  </si>
+  <si>
+    <t>Hero Xtreme 200R</t>
+  </si>
+  <si>
+    <t>LML Moonshot</t>
+  </si>
+  <si>
+    <t>LML Star</t>
+  </si>
+  <si>
+    <t>Hero Xoom 125</t>
+  </si>
+  <si>
+    <t>Rs. 90,000</t>
+  </si>
+  <si>
+    <t>Numeros Diplos i-pro</t>
+  </si>
+  <si>
+    <t>Numeros Diplos Pro</t>
+  </si>
+  <si>
+    <t>Suzuki Burgman Electric</t>
+  </si>
+  <si>
+    <t>Royal Enfield Scrambler 650</t>
+  </si>
+  <si>
+    <t>Rs. 3.50 Lakh</t>
+  </si>
+  <si>
+    <t>Benelli 302 S</t>
+  </si>
+  <si>
+    <t>Benelli 302R</t>
+  </si>
+  <si>
+    <t>Rs. 3.60 Lakh</t>
+  </si>
+  <si>
+    <t>Zontes U1 200</t>
+  </si>
+  <si>
+    <t>Rs. 1.80 Lakh</t>
+  </si>
+  <si>
+    <t>Tork Kratos X</t>
+  </si>
+  <si>
+    <t>Rs. 1.82 Lakh</t>
+  </si>
+  <si>
+    <t>Kabira Mobility KM 5000</t>
+  </si>
+  <si>
+    <t>Rs. 3.15 Lakh</t>
+  </si>
+  <si>
+    <t>LML Orion</t>
+  </si>
+  <si>
+    <t>Rs. 40,000</t>
+  </si>
+  <si>
+    <t>Launch Date : May 2024</t>
+  </si>
+  <si>
+    <t>Gogoro CrossOver</t>
   </si>
 </sst>
 </file>
@@ -601,7 +733,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56E3AFF-595E-4168-951B-1A539E7B7CA1}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -711,6 +843,292 @@
       </c>
       <c r="C9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/testData.xlsx
+++ b/TestData/testData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="92">
   <si>
     <t>UserMailId</t>
   </si>
@@ -305,6 +305,15 @@
   </si>
   <si>
     <t>Gogoro CrossOver</t>
+  </si>
+  <si>
+    <t>Launch Date : 24 Mar 2024</t>
+  </si>
+  <si>
+    <t>Launch Date : 28 Mar 2024</t>
+  </si>
+  <si>
+    <t>TVS ADV</t>
   </si>
 </sst>
 </file>
@@ -733,7 +742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56E3AFF-595E-4168-951B-1A539E7B7CA1}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -759,90 +768,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -869,10 +878,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -880,10 +889,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -891,10 +900,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -902,10 +911,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -913,10 +922,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -924,10 +933,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -935,10 +944,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -946,10 +955,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -957,7 +966,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -968,10 +977,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -979,18 +988,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -1001,10 +1010,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1012,10 +1021,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1023,10 +1032,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1034,10 +1043,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1045,10 +1054,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1056,10 +1065,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1067,10 +1076,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1078,10 +1087,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1089,10 +1098,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1100,21 +1109,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
         <v>87</v>
@@ -1122,13 +1131,24 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
